--- a/tool-packages/excel2all/__test__/test-excel-files/ObjTypeSetting.xlsx
+++ b/tool-packages/excel2all/__test__/test-excel-files/ObjTypeSetting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="共用场景" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>H:ObjTypeSetting</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>Prop1</t>
+  </si>
+  <si>
+    <t>布尔值</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>PropBool</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>数字数组</t>
@@ -112,9 +124,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -133,15 +145,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,6 +182,22 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -160,51 +209,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,11 +227,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,36 +245,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,187 +297,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,6 +488,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -490,6 +517,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,8 +572,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,30 +588,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -584,46 +596,49 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,97 +647,94 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1084,13 +1096,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="16.7666666666667" customWidth="1"/>
@@ -1140,7 +1152,7 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1155,21 +1167,21 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1196,22 +1208,36 @@
       <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
-        <v>12</v>
+      <c r="E7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
         <v>29</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tool-packages/excel2all/__test__/test-excel-files/ObjTypeSetting.xlsx
+++ b/tool-packages/excel2all/__test__/test-excel-files/ObjTypeSetting.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
-    <t>H:ObjTypeSetting</t>
+    <t>V:ObjTypeSetting</t>
   </si>
   <si>
     <t>TYPE</t>
@@ -123,8 +123,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -145,6 +145,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -152,37 +175,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,29 +257,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -227,14 +265,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -243,46 +273,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,43 +297,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,139 +471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,17 +491,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,9 +523,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,17 +565,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,26 +588,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -596,10 +596,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,133 +608,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/tool-packages/excel2all/__test__/test-excel-files/ObjTypeSetting.xlsx
+++ b/tool-packages/excel2all/__test__/test-excel-files/ObjTypeSetting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>V:ObjTypeSetting</t>
   </si>
@@ -25,9 +25,6 @@
     <t>CLIENT</t>
   </si>
   <si>
-    <t>SERVER</t>
-  </si>
-  <si>
     <t>VALUE</t>
   </si>
   <si>
@@ -95,6 +92,18 @@
   </si>
   <si>
     <t>{"a":1,"b":2,"c":"c","d":[1],"f":["f","f"]}</t>
+  </si>
+  <si>
+    <t>自定义类型,解析为number数组</t>
+  </si>
+  <si>
+    <t>nums</t>
+  </si>
+  <si>
+    <t>field_custom_type</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
   </si>
   <si>
     <t>嵌套对象测试:主键id</t>
@@ -125,8 +134,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -144,6 +153,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -151,22 +169,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -175,75 +177,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,6 +213,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -273,16 +267,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,61 +306,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,115 +480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,17 +500,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,41 +522,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,6 +545,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -588,6 +573,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -596,10 +605,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,137 +617,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -746,6 +755,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -800,6 +812,15 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1096,22 +1117,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="16.7666666666667" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="46.5" customWidth="1"/>
-    <col min="5" max="5" width="89.375" customWidth="1"/>
+    <col min="4" max="4" width="89.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="14.25" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1121,112 +1141,109 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="8" ht="14.25" spans="1:4">
+      <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1236,11 +1253,45 @@
       <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
